--- a/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Assay.xlsx
+++ b/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Assay.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -245,10 +245,22 @@
     <t>user-specific</t>
   </si>
   <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>paired-end</t>
+    <t>libraryconstruction.txt</t>
+  </si>
+  <si>
+    <t>single-end</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_0000086</t>
+  </si>
+  <si>
+    <t>Illumina HiSeq 2000</t>
+  </si>
+  <si>
+    <t>OBI</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002001</t>
   </si>
 </sst>
 </file>
@@ -304,8 +316,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:R5" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:R5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:R2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:R2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -885,7 +897,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -958,7 +970,7 @@
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
         <v>74</v>
@@ -970,201 +982,33 @@
         <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="R2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>74</v>
-      </c>
-      <c r="R5" t="s">
         <v>74</v>
       </c>
     </row>

--- a/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Assay.xlsx
+++ b/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Assay.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Assay" state="visible" r:id="rId5"/>
+    <sheet sheetId="2" name="New Table" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.0.3</t>
   </si>
   <si>
     <t>Description</t>
@@ -50,7 +50,7 @@
     <t>Table</t>
   </si>
   <si>
-    <t>Assay</t>
+    <t>New Table</t>
   </si>
   <si>
     <t>ERS</t>
@@ -65,7 +65,7 @@
     <t>ER Term Accession Number</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000096</t>
+    <t>http://purl.org/nfdi4plants/ontology/dpbo/DPBO_1000096</t>
   </si>
   <si>
     <t>ER Term Source REF</t>
@@ -95,13 +95,13 @@
     <t>Tags Term Accession Number</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0004184</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0008896</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C153189</t>
+    <t>https://bioregistry.io/EFO:0004184</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/EFO:0008896</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/NCIT:C153189</t>
   </si>
   <si>
     <t>Tags Term Source REF</t>
@@ -218,13 +218,13 @@
     <t>Parameter [library strategy]</t>
   </si>
   <si>
-    <t>Term Source REF (DPBO:0000035)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:0000035)</t>
-  </si>
-  <si>
-    <t>Parameter [next generation sequencing instrument model]</t>
+    <t>Term Source REF (GENEPIO:0001973)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (GENEPIO:0001973)</t>
+  </si>
+  <si>
+    <t>Component [next generation sequencing instrument model]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000040)</t>
@@ -233,7 +233,7 @@
     <t>Term Accession Number (DPBO:0000040)</t>
   </si>
   <si>
-    <t>Output [Raw Data File]</t>
+    <t>Output [Data]</t>
   </si>
   <si>
     <t/>
@@ -242,16 +242,13 @@
     <t>library construction protocol</t>
   </si>
   <si>
-    <t>user-specific</t>
-  </si>
-  <si>
     <t>libraryconstruction.txt</t>
   </si>
   <si>
     <t>single-end</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_0000086</t>
+    <t>http://purl.org/nfdi4plants/ontology/dpbo/DPBO_0000086</t>
   </si>
   <si>
     <t>Illumina HiSeq 2000</t>
@@ -260,7 +257,7 @@
     <t>OBI</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0002001</t>
+    <t>https://bioregistry.io/OBI:0002001</t>
   </si>
 </sst>
 </file>
@@ -350,12 +347,12 @@
     <tableColumn id="10" name="Term Source REF (DPBO:0000015)" totalsRowFunction="none"/>
     <tableColumn id="11" name="Term Accession Number (DPBO:0000015)" totalsRowFunction="none"/>
     <tableColumn id="12" name="Parameter [library strategy]" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Source REF (DPBO:0000035)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Term Accession Number (DPBO:0000035)" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Parameter [next generation sequencing instrument model]" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Source REF (GENEPIO:0001973)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Term Accession Number (GENEPIO:0001973)" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Component [next generation sequencing instrument model]" totalsRowFunction="none"/>
     <tableColumn id="16" name="Term Source REF (DPBO:0000040)" totalsRowFunction="none"/>
     <tableColumn id="17" name="Term Accession Number (DPBO:0000040)" totalsRowFunction="none"/>
-    <tableColumn id="18" name="Output [Raw Data File]" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Output [Data]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -964,13 +961,13 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
         <v>74</v>
@@ -982,13 +979,13 @@
         <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>
@@ -1000,13 +997,13 @@
         <v>28</v>
       </c>
       <c r="O2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" t="s">
         <v>80</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>81</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>82</v>
       </c>
       <c r="R2" t="s">
         <v>74</v>

--- a/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Assay.xlsx
+++ b/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Assay.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Description</t>
@@ -197,13 +197,13 @@
     <t>Protocol REF</t>
   </si>
   <si>
-    <t>Characteristic [Sample ID]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MIAPPE:0076)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0076)</t>
+    <t>Characteristic [Sample description]</t>
+  </si>
+  <si>
+    <t>Term Source REF (MIAPPE:0079)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0079)</t>
   </si>
   <si>
     <t>Parameter [library layout]</t>
@@ -340,9 +340,9 @@
     <tableColumn id="3" name="Term Source REF (DPBO:1000161)" totalsRowFunction="none"/>
     <tableColumn id="4" name="Term Accession Number (DPBO:1000161)" totalsRowFunction="none"/>
     <tableColumn id="5" name="Protocol REF" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Characteristic [Sample ID]" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Source REF (MIAPPE:0076)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Term Accession Number (MIAPPE:0076)" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Characteristic [Sample description]" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Source REF (MIAPPE:0079)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Term Accession Number (MIAPPE:0079)" totalsRowFunction="none"/>
     <tableColumn id="9" name="Parameter [library layout]" totalsRowFunction="none"/>
     <tableColumn id="10" name="Term Source REF (DPBO:0000015)" totalsRowFunction="none"/>
     <tableColumn id="11" name="Term Accession Number (DPBO:0000015)" totalsRowFunction="none"/>

--- a/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Assay.xlsx
+++ b/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Assay.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A0A791-7692-4050-B18B-5208484D75EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="4260" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="New Table" state="visible" r:id="rId5"/>
+    <sheet name="isa_template" sheetId="1" r:id="rId1"/>
+    <sheet name="SequencingAssay" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -50,9 +54,6 @@
     <t>Table</t>
   </si>
   <si>
-    <t>New Table</t>
-  </si>
-  <si>
     <t>ERS</t>
   </si>
   <si>
@@ -258,19 +259,22 @@
   </si>
   <si>
     <t>https://bioregistry.io/OBI:0002001</t>
+  </si>
+  <si>
+    <t>SequencingAssay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -297,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -313,8 +317,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:R2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:R2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:R2">
+  <autoFilter ref="A1:R2" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -335,24 +339,24 @@
     <filterColumn colId="17" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Protocol Type" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (DPBO:1000161)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (DPBO:1000161)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Protocol REF" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Characteristic [Sample description]" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Source REF (MIAPPE:0079)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Term Accession Number (MIAPPE:0079)" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Parameter [library layout]" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Source REF (DPBO:0000015)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Term Accession Number (DPBO:0000015)" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Parameter [library strategy]" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Source REF (GENEPIO:0001973)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Term Accession Number (GENEPIO:0001973)" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Component [next generation sequencing instrument model]" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Source REF (DPBO:0000040)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Term Accession Number (DPBO:0000040)" totalsRowFunction="none"/>
-    <tableColumn id="18" name="Output [Data]" totalsRowFunction="none"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Sample Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Protocol Type"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (DPBO:1000161)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (DPBO:1000161)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Protocol REF"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Characteristic [Sample description]"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Source REF (MIAPPE:0079)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Term Accession Number (MIAPPE:0079)"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Parameter [library layout]"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Term Source REF (DPBO:0000015)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Term Accession Number (DPBO:0000015)"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Parameter [library strategy]"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Term Source REF (GENEPIO:0001973)"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Term Accession Number (GENEPIO:0001973)"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Component [next generation sequencing instrument model]"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Term Source REF (DPBO:0000040)"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Term Accession Number (DPBO:0000040)"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Output [Data]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -654,16 +658,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -671,7 +680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -679,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -687,7 +696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -695,7 +704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -703,315 +712,320 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>40</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
         <v>76</v>
       </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
         <v>78</v>
       </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>79</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" t="s">
-        <v>81</v>
-      </c>
       <c r="R2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
